--- a/biology/Médecine/Nerf_grand_auriculaire/Nerf_grand_auriculaire.xlsx
+++ b/biology/Médecine/Nerf_grand_auriculaire/Nerf_grand_auriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf grand auriculaire est un nerf sensitif issu du plexus cervical superficiel. C'est la plus grosse des branches ascendantes du plexus cervical.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf grand auriculaire nait des branches antérieures des deuxième et troisième nerfs cervicaux.
 </t>
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand nerf auriculaire s'enroule autour du bord postérieur du muscle sternocléidomastoïdien et, après avoir perforé son fascia, monte sur ce muscle sous le muscle platysma jusqu'à la glande parotide. Il se divise en une branche terminale antérieure et une branche terminale postérieure.
 La branche antérieure innerve la peau recouvrant la glande parotide. Elle communique avec le nerf facial à l'intérieur de la glande parotide.
@@ -576,10 +592,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La douleur résultant d'une parotidite est transmise par le nerf grand auriculaire.
-Le nerf grand auriculaire peut être endommagé lors d'une intervention chirurgicale sur la glande parotide, ce qui réduit la sensibilité du visage[1].
+Le nerf grand auriculaire peut être endommagé lors d'une intervention chirurgicale sur la glande parotide, ce qui réduit la sensibilité du visage.
 </t>
         </is>
       </c>
